--- a/Econometrics/data/wage.xlsx
+++ b/Econometrics/data/wage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\OneDrive\문서\R-Quant\Econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE5F829-9572-4CFE-BD20-D5B98A676520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1779D062-EFD0-4FF9-8C32-5C1860DC5A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="990" windowWidth="23475" windowHeight="15435" xr2:uid="{312970B3-49EC-4C3D-B5EA-07BE3E9D7704}"/>
+    <workbookView xWindow="38745" yWindow="-5790" windowWidth="21090" windowHeight="15435" xr2:uid="{312970B3-49EC-4C3D-B5EA-07BE3E9D7704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>obs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22127A9-6F0B-442A-A75A-2B148AD588A5}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -524,8 +524,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="F2">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -544,8 +544,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -564,8 +564,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="F4">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -584,8 +584,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
+      <c r="F5">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -604,8 +604,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
+      <c r="F6">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -624,8 +624,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
+      <c r="F7">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -644,8 +644,8 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
+      <c r="F8">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -664,8 +664,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
+      <c r="F9">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -684,8 +684,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
+      <c r="F10">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,8 +704,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
+      <c r="F11">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -724,8 +724,8 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
+      <c r="F12">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,8 +744,8 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
+      <c r="F13">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -764,8 +764,8 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
+      <c r="F14">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -784,8 +784,8 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>13</v>
+      <c r="F15">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -804,8 +804,8 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>14</v>
+      <c r="F16">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -824,8 +824,8 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
+      <c r="F17">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -844,8 +844,8 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
+      <c r="F18">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -864,8 +864,8 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
+      <c r="F19">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -884,8 +884,8 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>10</v>
+      <c r="F20">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -904,8 +904,8 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>11</v>
+      <c r="F21">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,8 +924,8 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
+      <c r="F22">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -944,8 +944,8 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>13</v>
+      <c r="F23">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -964,8 +964,8 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>14</v>
+      <c r="F24">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -984,8 +984,8 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>15</v>
+      <c r="F25">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1004,8 +1004,8 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>8</v>
+      <c r="F26">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1024,8 +1024,8 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>9</v>
+      <c r="F27">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1044,8 +1044,8 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
-        <v>10</v>
+      <c r="F28">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1064,8 +1064,8 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
-        <v>11</v>
+      <c r="F29">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,8 +1084,8 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
+      <c r="F30">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,8 +1104,8 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>13</v>
+      <c r="F31">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1124,8 +1124,8 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>14</v>
+      <c r="F32">
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1144,8 +1144,8 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
-        <v>15</v>
+      <c r="F33">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1164,8 +1164,8 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" t="s">
-        <v>8</v>
+      <c r="F34">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1184,8 +1184,8 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" t="s">
-        <v>9</v>
+      <c r="F35">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,8 +1204,8 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" t="s">
-        <v>10</v>
+      <c r="F36">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,8 +1224,8 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" t="s">
-        <v>11</v>
+      <c r="F37">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1244,8 +1244,8 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
+      <c r="F38">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,8 +1264,8 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" t="s">
-        <v>13</v>
+      <c r="F39">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,8 +1284,8 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" t="s">
-        <v>14</v>
+      <c r="F40">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1304,8 +1304,8 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="s">
-        <v>15</v>
+      <c r="F41">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1324,8 +1324,8 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
-        <v>8</v>
+      <c r="F42">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1344,8 +1344,8 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
-        <v>9</v>
+      <c r="F43">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1364,8 +1364,8 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
-        <v>10</v>
+      <c r="F44">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1384,8 +1384,8 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
-        <v>11</v>
+      <c r="F45">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1404,8 +1404,8 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
+      <c r="F46">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1424,8 +1424,8 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>13</v>
+      <c r="F47">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1444,8 +1444,8 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
-        <v>14</v>
+      <c r="F48">
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1464,8 +1464,8 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
-        <v>15</v>
+      <c r="F49">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1484,8 +1484,8 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" t="s">
-        <v>8</v>
+      <c r="F50">
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1504,8 +1504,8 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" t="s">
-        <v>9</v>
+      <c r="F51">
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1524,8 +1524,8 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" t="s">
-        <v>10</v>
+      <c r="F52">
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1544,8 +1544,8 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" t="s">
-        <v>11</v>
+      <c r="F53">
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1564,8 +1564,8 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" t="s">
-        <v>12</v>
+      <c r="F54">
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1584,8 +1584,8 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" t="s">
-        <v>13</v>
+      <c r="F55">
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1604,8 +1604,8 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" t="s">
-        <v>14</v>
+      <c r="F56">
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1624,8 +1624,8 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" t="s">
-        <v>15</v>
+      <c r="F57">
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1644,8 +1644,8 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
-        <v>8</v>
+      <c r="F58">
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1664,8 +1664,8 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
-        <v>9</v>
+      <c r="F59">
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1684,8 +1684,8 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" t="s">
-        <v>10</v>
+      <c r="F60">
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1704,8 +1704,8 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
-        <v>11</v>
+      <c r="F61">
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1724,8 +1724,8 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
-        <v>12</v>
+      <c r="F62">
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1744,8 +1744,8 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
-        <v>13</v>
+      <c r="F63">
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1764,8 +1764,8 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
-        <v>14</v>
+      <c r="F64">
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1784,8 +1784,8 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
-        <v>15</v>
+      <c r="F65">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Econometrics/data/wage.xlsx
+++ b/Econometrics/data/wage.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\OneDrive\문서\R-Quant\Econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1779D062-EFD0-4FF9-8C32-5C1860DC5A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DB4FF-5A66-4A54-809D-296B2835786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38745" yWindow="-5790" windowWidth="21090" windowHeight="15435" xr2:uid="{312970B3-49EC-4C3D-B5EA-07BE3E9D7704}"/>
+    <workbookView xWindow="7230" yWindow="2460" windowWidth="21090" windowHeight="15435" activeTab="1" xr2:uid="{312970B3-49EC-4C3D-B5EA-07BE3E9D7704}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sub" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="random" sheetId="1" r:id="rId2"/>
+    <sheet name="sub" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -479,44 +480,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22127A9-6F0B-442A-A75A-2B148AD588A5}">
-  <dimension ref="A1:F65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F454D4C-8D7F-4185-8969-13E2D24DCA49}">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58:F65"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2451</v>
+      </c>
+      <c r="C1">
+        <v>1.4</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2451</v>
+        <v>2459</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -525,18 +526,18 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2459</v>
+        <v>2604</v>
       </c>
       <c r="C3">
-        <v>2.2000000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -545,18 +546,18 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2604</v>
+        <v>2974</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -565,18 +566,18 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2974</v>
+        <v>3114</v>
       </c>
       <c r="C5">
-        <v>4.4000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -585,18 +586,18 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3114</v>
+        <v>3725</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -605,18 +606,18 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>3725</v>
+        <v>4027</v>
       </c>
       <c r="C7">
-        <v>8.6999999999999993</v>
+        <v>12.3</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -625,18 +626,18 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>4027</v>
+        <v>4008</v>
       </c>
       <c r="C8">
-        <v>12.3</v>
+        <v>14.9</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -645,35 +646,35 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>4008</v>
+        <v>2054</v>
       </c>
       <c r="C9">
-        <v>14.9</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>2054</v>
+        <v>2076</v>
       </c>
       <c r="C10">
         <v>1.9</v>
@@ -685,18 +686,18 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2076</v>
+        <v>2174</v>
       </c>
       <c r="C11">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -705,18 +706,18 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>2174</v>
+        <v>2203</v>
       </c>
       <c r="C12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -725,18 +726,18 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>2203</v>
+        <v>1892</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -745,18 +746,18 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>1892</v>
+        <v>2131</v>
       </c>
       <c r="C14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -765,18 +766,18 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>2131</v>
+        <v>2160</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -785,18 +786,18 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>2160</v>
+        <v>2149</v>
       </c>
       <c r="C16">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -805,38 +806,38 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>2149</v>
+        <v>2281</v>
       </c>
       <c r="C17">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>2281</v>
+        <v>2634</v>
       </c>
       <c r="C18">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -845,18 +846,18 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>2634</v>
+        <v>2997</v>
       </c>
       <c r="C19">
-        <v>2.2000000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -865,18 +866,18 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>2997</v>
+        <v>3444</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -885,18 +886,18 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>3444</v>
+        <v>3745</v>
       </c>
       <c r="C21">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="D21">
         <v>12</v>
@@ -905,18 +906,18 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>3745</v>
+        <v>4109</v>
       </c>
       <c r="C22">
-        <v>7.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D22">
         <v>12</v>
@@ -925,18 +926,18 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>4109</v>
+        <v>4211</v>
       </c>
       <c r="C23">
-        <v>9.8000000000000007</v>
+        <v>11.5</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -945,18 +946,18 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>4211</v>
+        <v>3801</v>
       </c>
       <c r="C24">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D24">
         <v>12</v>
@@ -965,38 +966,38 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>3801</v>
+        <v>2152</v>
       </c>
       <c r="C25">
-        <v>11.2</v>
+        <v>1.7</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>2152</v>
+        <v>2591</v>
       </c>
       <c r="C26">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="D26">
         <v>12</v>
@@ -1005,18 +1006,18 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>2591</v>
+        <v>2747</v>
       </c>
       <c r="C27">
-        <v>3.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -1025,18 +1026,18 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>2747</v>
+        <v>2674</v>
       </c>
       <c r="C28">
-        <v>4.5999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -1045,18 +1046,18 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>2674</v>
+        <v>2653</v>
       </c>
       <c r="C29">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1065,18 +1066,18 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>2653</v>
+        <v>2500</v>
       </c>
       <c r="C30">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -1085,18 +1086,18 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>2500</v>
+        <v>2285</v>
       </c>
       <c r="C31">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -1105,18 +1106,18 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>2285</v>
+        <v>2124</v>
       </c>
       <c r="C32">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="D32">
         <v>12</v>
@@ -1125,38 +1126,38 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>2124</v>
+        <v>2393</v>
       </c>
       <c r="C33">
-        <v>5.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>2393</v>
+        <v>2860</v>
       </c>
       <c r="C34">
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D34">
         <v>14</v>
@@ -1165,18 +1166,18 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>2860</v>
+        <v>3395</v>
       </c>
       <c r="C35">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D35">
         <v>14</v>
@@ -1185,18 +1186,18 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>3395</v>
+        <v>3940</v>
       </c>
       <c r="C36">
-        <v>4.4000000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="D36">
         <v>14</v>
@@ -1205,18 +1206,18 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>3940</v>
+        <v>4234</v>
       </c>
       <c r="C37">
-        <v>6.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D37">
         <v>14</v>
@@ -1225,18 +1226,18 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>4234</v>
+        <v>4624</v>
       </c>
       <c r="C38">
-        <v>8.6999999999999993</v>
+        <v>10.7</v>
       </c>
       <c r="D38">
         <v>14</v>
@@ -1245,18 +1246,18 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>4624</v>
+        <v>4858</v>
       </c>
       <c r="C39">
-        <v>10.7</v>
+        <v>12.9</v>
       </c>
       <c r="D39">
         <v>14</v>
@@ -1265,18 +1266,18 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>4858</v>
+        <v>4594</v>
       </c>
       <c r="C40">
-        <v>12.9</v>
+        <v>13.3</v>
       </c>
       <c r="D40">
         <v>14</v>
@@ -1285,38 +1286,38 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>4594</v>
+        <v>2096</v>
       </c>
       <c r="C41">
-        <v>13.3</v>
+        <v>1.3</v>
       </c>
       <c r="D41">
         <v>14</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>2096</v>
+        <v>2492</v>
       </c>
       <c r="C42">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="D42">
         <v>14</v>
@@ -1325,18 +1326,18 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>2492</v>
+        <v>2796</v>
       </c>
       <c r="C43">
-        <v>2.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D43">
         <v>14</v>
@@ -1345,18 +1346,18 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>2796</v>
+        <v>2917</v>
       </c>
       <c r="C44">
-        <v>4.5999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -1365,18 +1366,18 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>2917</v>
+        <v>2940</v>
       </c>
       <c r="C45">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D45">
         <v>14</v>
@@ -1385,15 +1386,15 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>2940</v>
+        <v>2757</v>
       </c>
       <c r="C46">
         <v>6.5</v>
@@ -1405,15 +1406,15 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>2757</v>
+        <v>2648</v>
       </c>
       <c r="C47">
         <v>6.5</v>
@@ -1425,15 +1426,15 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>2648</v>
+        <v>2590</v>
       </c>
       <c r="C48">
         <v>6.5</v>
@@ -1445,38 +1446,38 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>2590</v>
+        <v>2404</v>
       </c>
       <c r="C49">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>2404</v>
+        <v>3168</v>
       </c>
       <c r="C50">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="D50">
         <v>16</v>
@@ -1485,18 +1486,18 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>3168</v>
+        <v>3924</v>
       </c>
       <c r="C51">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="D51">
         <v>16</v>
@@ -1505,18 +1506,18 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>3924</v>
+        <v>4825</v>
       </c>
       <c r="C52">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
       <c r="D52">
         <v>16</v>
@@ -1525,18 +1526,18 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>4825</v>
+        <v>5640</v>
       </c>
       <c r="C53">
-        <v>6.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D53">
         <v>16</v>
@@ -1545,18 +1546,18 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>5640</v>
+        <v>6310</v>
       </c>
       <c r="C54">
-        <v>8.6999999999999993</v>
+        <v>11.5</v>
       </c>
       <c r="D54">
         <v>16</v>
@@ -1565,18 +1566,18 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>6310</v>
+        <v>6794</v>
       </c>
       <c r="C55">
-        <v>11.5</v>
+        <v>14.4</v>
       </c>
       <c r="D55">
         <v>16</v>
@@ -1585,15 +1586,15 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>6794</v>
+        <v>6339</v>
       </c>
       <c r="C56">
         <v>14.4</v>
@@ -1605,38 +1606,38 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>6339</v>
+        <v>2428</v>
       </c>
       <c r="C57">
-        <v>14.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D57">
         <v>16</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>2428</v>
+        <v>2883</v>
       </c>
       <c r="C58">
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D58">
         <v>16</v>
@@ -1645,18 +1646,18 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>2883</v>
+        <v>3457</v>
       </c>
       <c r="C59">
-        <v>2.2000000000000002</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D59">
         <v>16</v>
@@ -1665,18 +1666,18 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>3457</v>
+        <v>3919</v>
       </c>
       <c r="C60">
-        <v>4.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -1685,18 +1686,18 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>3919</v>
+        <v>3992</v>
       </c>
       <c r="C61">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="D61">
         <v>16</v>
@@ -1705,18 +1706,18 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>3992</v>
+        <v>3903</v>
       </c>
       <c r="C62">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="D62">
         <v>16</v>
@@ -1725,18 +1726,18 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>3903</v>
+        <v>3921</v>
       </c>
       <c r="C63">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="D63">
         <v>16</v>
@@ -1745,18 +1746,18 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>3921</v>
+        <v>4047</v>
       </c>
       <c r="C64">
-        <v>9.5</v>
+        <v>10.6</v>
       </c>
       <c r="D64">
         <v>16</v>
@@ -1765,26 +1766,6 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>4047</v>
-      </c>
-      <c r="C65">
-        <v>10.6</v>
-      </c>
-      <c r="D65">
-        <v>16</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
         <v>57</v>
       </c>
     </row>
@@ -1795,6 +1776,1325 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22127A9-6F0B-442A-A75A-2B148AD588A5}">
+  <dimension ref="A1:F65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>4027</v>
+      </c>
+      <c r="C2">
+        <v>12.3</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2451</v>
+      </c>
+      <c r="C3">
+        <v>1.4</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>4624</v>
+      </c>
+      <c r="C4">
+        <v>10.7</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>4109</v>
+      </c>
+      <c r="C5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>2124</v>
+      </c>
+      <c r="C6">
+        <v>5.2</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>2285</v>
+      </c>
+      <c r="C7">
+        <v>5.5</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>2492</v>
+      </c>
+      <c r="C8">
+        <v>2.8</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>2997</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2149</v>
+      </c>
+      <c r="C10">
+        <v>6.3</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2076</v>
+      </c>
+      <c r="C11">
+        <v>1.9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>3168</v>
+      </c>
+      <c r="C12">
+        <v>1.8</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>3924</v>
+      </c>
+      <c r="C13">
+        <v>3.9</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>6339</v>
+      </c>
+      <c r="C14">
+        <v>14.4</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>2860</v>
+      </c>
+      <c r="C15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2203</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>4047</v>
+      </c>
+      <c r="C17">
+        <v>10.6</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2634</v>
+      </c>
+      <c r="C18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>2883</v>
+      </c>
+      <c r="C19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>2404</v>
+      </c>
+      <c r="C20">
+        <v>0.9</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>2131</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>2500</v>
+      </c>
+      <c r="C22">
+        <v>5.7</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>5640</v>
+      </c>
+      <c r="C23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>2940</v>
+      </c>
+      <c r="C24">
+        <v>6.5</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>2747</v>
+      </c>
+      <c r="C25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>2917</v>
+      </c>
+      <c r="C26">
+        <v>6.2</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>3903</v>
+      </c>
+      <c r="C27">
+        <v>8.4</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2604</v>
+      </c>
+      <c r="C28">
+        <v>3.1</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>3921</v>
+      </c>
+      <c r="C29">
+        <v>9.5</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>2428</v>
+      </c>
+      <c r="C30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>2757</v>
+      </c>
+      <c r="C31">
+        <v>6.5</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>2281</v>
+      </c>
+      <c r="C32">
+        <v>1.5</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>2796</v>
+      </c>
+      <c r="C33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>2648</v>
+      </c>
+      <c r="C34">
+        <v>6.5</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>6794</v>
+      </c>
+      <c r="C35">
+        <v>14.4</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>3919</v>
+      </c>
+      <c r="C36">
+        <v>6.4</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>3114</v>
+      </c>
+      <c r="C37">
+        <v>5.9</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>3725</v>
+      </c>
+      <c r="C38">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>6310</v>
+      </c>
+      <c r="C39">
+        <v>11.5</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>4211</v>
+      </c>
+      <c r="C40">
+        <v>11.5</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>4825</v>
+      </c>
+      <c r="C41">
+        <v>6.1</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>2152</v>
+      </c>
+      <c r="C42">
+        <v>1.7</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>2160</v>
+      </c>
+      <c r="C43">
+        <v>5.3</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>4234</v>
+      </c>
+      <c r="C44">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>3444</v>
+      </c>
+      <c r="C45">
+        <v>5.5</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>2674</v>
+      </c>
+      <c r="C46">
+        <v>5.2</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>2459</v>
+      </c>
+      <c r="C47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>3992</v>
+      </c>
+      <c r="C48">
+        <v>7.5</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>2591</v>
+      </c>
+      <c r="C49">
+        <v>3.1</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>2653</v>
+      </c>
+      <c r="C50">
+        <v>5.8</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>2174</v>
+      </c>
+      <c r="C51">
+        <v>3.1</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>4008</v>
+      </c>
+      <c r="C52">
+        <v>14.9</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>3457</v>
+      </c>
+      <c r="C53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>3940</v>
+      </c>
+      <c r="C54">
+        <v>6.7</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>2974</v>
+      </c>
+      <c r="C55">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>39</v>
+      </c>
+      <c r="B56">
+        <v>4858</v>
+      </c>
+      <c r="C56">
+        <v>12.9</v>
+      </c>
+      <c r="D56">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>1892</v>
+      </c>
+      <c r="C57">
+        <v>4.5</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>3745</v>
+      </c>
+      <c r="C58">
+        <v>7.4</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>40</v>
+      </c>
+      <c r="B59">
+        <v>4594</v>
+      </c>
+      <c r="C59">
+        <v>13.3</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>2054</v>
+      </c>
+      <c r="C60">
+        <v>1.9</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>41</v>
+      </c>
+      <c r="B61">
+        <v>2096</v>
+      </c>
+      <c r="C61">
+        <v>1.3</v>
+      </c>
+      <c r="D61">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>33</v>
+      </c>
+      <c r="B62">
+        <v>2393</v>
+      </c>
+      <c r="C62">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D62">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>35</v>
+      </c>
+      <c r="B63">
+        <v>3395</v>
+      </c>
+      <c r="C63">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>48</v>
+      </c>
+      <c r="B64">
+        <v>2590</v>
+      </c>
+      <c r="C64">
+        <v>6.5</v>
+      </c>
+      <c r="D64">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>3801</v>
+      </c>
+      <c r="C65">
+        <v>11.2</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
+    <sortCondition ref="G2:G65"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094A4C83-2241-4014-AADE-48255C292C85}">
   <dimension ref="A1:C19"/>
   <sheetViews>

--- a/Econometrics/data/wage.xlsx
+++ b/Econometrics/data/wage.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\OneDrive\문서\R-Quant\Econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8DB4FF-5A66-4A54-809D-296B2835786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4F625-4A5E-48C5-B4C5-2C761193D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2460" windowWidth="21090" windowHeight="15435" activeTab="1" xr2:uid="{312970B3-49EC-4C3D-B5EA-07BE3E9D7704}"/>
+    <workbookView xWindow="7230" yWindow="2460" windowWidth="21090" windowHeight="15435" xr2:uid="{312970B3-49EC-4C3D-B5EA-07BE3E9D7704}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="row data" sheetId="3" r:id="rId1"/>
     <sheet name="random" sheetId="1" r:id="rId2"/>
     <sheet name="sub" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -483,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F454D4C-8D7F-4185-8969-13E2D24DCA49}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A50" sqref="A50:F50"/>
     </sheetView>
   </sheetViews>
@@ -1779,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22127A9-6F0B-442A-A75A-2B148AD588A5}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>4027</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2451</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4624</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4109</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2124</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2285</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2492</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2997</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2149</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3168</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>3924</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>6339</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>2860</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>2203</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>4047</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>2634</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2883</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>2404</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2131</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>2500</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>5640</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2940</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>2747</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>2917</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>3903</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2604</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>3921</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2428</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>2757</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>2281</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>2796</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>2648</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>6794</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>3919</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>3114</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>3725</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>6310</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>4211</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>4825</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>2152</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>2160</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>4234</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>3444</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>2674</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>2459</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>3992</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>2591</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>2653</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>2174</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>4008</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>3457</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>3940</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>2974</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>4858</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>1892</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>3745</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>4594</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>2054</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>2096</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>2393</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>3395</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>2590</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>3801</v>

--- a/Econometrics/data/wage.xlsx
+++ b/Econometrics/data/wage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\OneDrive\문서\R-Quant\Econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4F625-4A5E-48C5-B4C5-2C761193D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E090CC-3BF0-49CE-8AF4-9A7DD5DAA83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7230" yWindow="2460" windowWidth="21090" windowHeight="15435" xr2:uid="{312970B3-49EC-4C3D-B5EA-07BE3E9D7704}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>obs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,32 @@
   <si>
     <t>중졸이하</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22_dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27_dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32_dummy</t>
+  </si>
+  <si>
+    <t>37_dummy</t>
+  </si>
+  <si>
+    <t>42_dummy</t>
+  </si>
+  <si>
+    <t>47_dummy</t>
+  </si>
+  <si>
+    <t>52_dummy</t>
+  </si>
+  <si>
+    <t>57_dummy</t>
   </si>
 </sst>
 </file>
@@ -481,43 +507,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F454D4C-8D7F-4185-8969-13E2D24DCA49}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2451</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1.4</v>
-      </c>
-      <c r="D1">
-        <v>9</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2459</v>
-      </c>
-      <c r="C2">
-        <v>2.2000000000000002</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -526,18 +576,42 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2604</v>
+        <v>2459</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -546,18 +620,42 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2974</v>
+        <v>2604</v>
       </c>
       <c r="C4">
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -566,18 +664,42 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3114</v>
+        <v>2974</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -586,18 +708,42 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>3725</v>
+        <v>3114</v>
       </c>
       <c r="C6">
-        <v>8.6999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -606,18 +752,42 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>4027</v>
+        <v>3725</v>
       </c>
       <c r="C7">
-        <v>12.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -626,18 +796,42 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4008</v>
+        <v>4027</v>
       </c>
       <c r="C8">
-        <v>14.9</v>
+        <v>12.3</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -646,35 +840,83 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2054</v>
+        <v>4008</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>14.9</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2076</v>
+        <v>2054</v>
       </c>
       <c r="C10">
         <v>1.9</v>
@@ -686,18 +928,42 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>2174</v>
+        <v>2076</v>
       </c>
       <c r="C11">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -706,18 +972,42 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>2203</v>
+        <v>2174</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -726,18 +1016,42 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1892</v>
+        <v>2203</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -746,18 +1060,42 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>2131</v>
+        <v>1892</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -766,18 +1104,42 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2160</v>
+        <v>2131</v>
       </c>
       <c r="C15">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -786,18 +1148,42 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2149</v>
+        <v>2160</v>
       </c>
       <c r="C16">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -806,38 +1192,86 @@
         <v>1</v>
       </c>
       <c r="F16">
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2149</v>
+      </c>
+      <c r="C17">
+        <v>6.3</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>2281</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1.5</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>2634</v>
-      </c>
-      <c r="C18">
-        <v>2.2000000000000002</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -846,18 +1280,42 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>2997</v>
+        <v>2634</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -866,18 +1324,42 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>3444</v>
+        <v>2997</v>
       </c>
       <c r="C20">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -886,18 +1368,42 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>3745</v>
+        <v>3444</v>
       </c>
       <c r="C21">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="D21">
         <v>12</v>
@@ -906,18 +1412,42 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>4109</v>
+        <v>3745</v>
       </c>
       <c r="C22">
-        <v>9.8000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="D22">
         <v>12</v>
@@ -926,18 +1456,42 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>4211</v>
+        <v>4109</v>
       </c>
       <c r="C23">
-        <v>11.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -946,18 +1500,42 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>3801</v>
+        <v>4211</v>
       </c>
       <c r="C24">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="D24">
         <v>12</v>
@@ -966,38 +1544,86 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>2152</v>
+        <v>3801</v>
       </c>
       <c r="C25">
-        <v>1.7</v>
+        <v>11.2</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>2591</v>
+        <v>2152</v>
       </c>
       <c r="C26">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="D26">
         <v>12</v>
@@ -1006,18 +1632,42 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>2747</v>
+        <v>2591</v>
       </c>
       <c r="C27">
-        <v>4.5999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -1026,18 +1676,42 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>2674</v>
+        <v>2747</v>
       </c>
       <c r="C28">
-        <v>5.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -1046,18 +1720,42 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>2653</v>
+        <v>2674</v>
       </c>
       <c r="C29">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1066,18 +1764,42 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>2500</v>
+        <v>2653</v>
       </c>
       <c r="C30">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -1086,18 +1808,42 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>2285</v>
+        <v>2500</v>
       </c>
       <c r="C31">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="D31">
         <v>12</v>
@@ -1106,18 +1852,42 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>2124</v>
+        <v>2285</v>
       </c>
       <c r="C32">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D32">
         <v>12</v>
@@ -1126,38 +1896,86 @@
         <v>1</v>
       </c>
       <c r="F32">
+        <v>52</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2124</v>
+      </c>
+      <c r="C33">
+        <v>5.2</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>2393</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="D33">
-        <v>14</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>2860</v>
-      </c>
-      <c r="C34">
-        <v>2.2000000000000002</v>
       </c>
       <c r="D34">
         <v>14</v>
@@ -1166,18 +1984,42 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>3395</v>
+        <v>2860</v>
       </c>
       <c r="C35">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D35">
         <v>14</v>
@@ -1186,18 +2028,42 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>3940</v>
+        <v>3395</v>
       </c>
       <c r="C36">
-        <v>6.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D36">
         <v>14</v>
@@ -1206,18 +2072,42 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>4234</v>
+        <v>3940</v>
       </c>
       <c r="C37">
-        <v>8.6999999999999993</v>
+        <v>6.7</v>
       </c>
       <c r="D37">
         <v>14</v>
@@ -1226,18 +2116,42 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>4624</v>
+        <v>4234</v>
       </c>
       <c r="C38">
-        <v>10.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D38">
         <v>14</v>
@@ -1246,18 +2160,42 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>4858</v>
+        <v>4624</v>
       </c>
       <c r="C39">
-        <v>12.9</v>
+        <v>10.7</v>
       </c>
       <c r="D39">
         <v>14</v>
@@ -1266,18 +2204,42 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>4594</v>
+        <v>4858</v>
       </c>
       <c r="C40">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="D40">
         <v>14</v>
@@ -1286,38 +2248,86 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>2096</v>
+        <v>4594</v>
       </c>
       <c r="C41">
-        <v>1.3</v>
+        <v>13.3</v>
       </c>
       <c r="D41">
         <v>14</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>2492</v>
+        <v>2096</v>
       </c>
       <c r="C42">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="D42">
         <v>14</v>
@@ -1326,18 +2336,42 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>2796</v>
+        <v>2492</v>
       </c>
       <c r="C43">
-        <v>4.5999999999999996</v>
+        <v>2.8</v>
       </c>
       <c r="D43">
         <v>14</v>
@@ -1346,18 +2380,42 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>2917</v>
+        <v>2796</v>
       </c>
       <c r="C44">
-        <v>6.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -1366,18 +2424,42 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>2940</v>
+        <v>2917</v>
       </c>
       <c r="C45">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="D45">
         <v>14</v>
@@ -1386,15 +2468,39 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>2757</v>
+        <v>2940</v>
       </c>
       <c r="C46">
         <v>6.5</v>
@@ -1406,15 +2512,39 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>2648</v>
+        <v>2757</v>
       </c>
       <c r="C47">
         <v>6.5</v>
@@ -1426,15 +2556,39 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>2590</v>
+        <v>2648</v>
       </c>
       <c r="C48">
         <v>6.5</v>
@@ -1446,38 +2600,86 @@
         <v>1</v>
       </c>
       <c r="F48">
+        <v>52</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2590</v>
+      </c>
+      <c r="C49">
+        <v>6.5</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>2404</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>0.9</v>
-      </c>
-      <c r="D49">
-        <v>16</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>3168</v>
-      </c>
-      <c r="C50">
-        <v>1.8</v>
       </c>
       <c r="D50">
         <v>16</v>
@@ -1486,18 +2688,42 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>3924</v>
+        <v>3168</v>
       </c>
       <c r="C51">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="D51">
         <v>16</v>
@@ -1506,18 +2732,42 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>4825</v>
+        <v>3924</v>
       </c>
       <c r="C52">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="D52">
         <v>16</v>
@@ -1526,18 +2776,42 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>5640</v>
+        <v>4825</v>
       </c>
       <c r="C53">
-        <v>8.6999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="D53">
         <v>16</v>
@@ -1546,18 +2820,42 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>6310</v>
+        <v>5640</v>
       </c>
       <c r="C54">
-        <v>11.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D54">
         <v>16</v>
@@ -1566,18 +2864,42 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>6794</v>
+        <v>6310</v>
       </c>
       <c r="C55">
-        <v>14.4</v>
+        <v>11.5</v>
       </c>
       <c r="D55">
         <v>16</v>
@@ -1586,15 +2908,39 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>6339</v>
+        <v>6794</v>
       </c>
       <c r="C56">
         <v>14.4</v>
@@ -1606,38 +2952,86 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>2428</v>
+        <v>6339</v>
       </c>
       <c r="C57">
-        <v>1.1000000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="D57">
         <v>16</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>2883</v>
+        <v>2428</v>
       </c>
       <c r="C58">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D58">
         <v>16</v>
@@ -1646,18 +3040,42 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>3457</v>
+        <v>2883</v>
       </c>
       <c r="C59">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D59">
         <v>16</v>
@@ -1666,18 +3084,42 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>3919</v>
+        <v>3457</v>
       </c>
       <c r="C60">
-        <v>6.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -1686,18 +3128,42 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>3992</v>
+        <v>3919</v>
       </c>
       <c r="C61">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="D61">
         <v>16</v>
@@ -1706,18 +3172,42 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>3903</v>
+        <v>3992</v>
       </c>
       <c r="C62">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="D62">
         <v>16</v>
@@ -1726,18 +3216,42 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>3921</v>
+        <v>3903</v>
       </c>
       <c r="C63">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="D63">
         <v>16</v>
@@ -1746,18 +3260,42 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>4047</v>
+        <v>3921</v>
       </c>
       <c r="C64">
-        <v>10.6</v>
+        <v>9.5</v>
       </c>
       <c r="D64">
         <v>16</v>
@@ -1766,7 +3304,75 @@
         <v>1</v>
       </c>
       <c r="F64">
+        <v>52</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>4047</v>
+      </c>
+      <c r="C65">
+        <v>10.6</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
         <v>57</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +3386,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Econometrics/data/wage.xlsx
+++ b/Econometrics/data/wage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\OneDrive\문서\R-Quant\Econometrics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E090CC-3BF0-49CE-8AF4-9A7DD5DAA83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC6C4D9-BD35-48F7-AD97-71FA135EB7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7230" yWindow="2460" windowWidth="21090" windowHeight="15435" xr2:uid="{312970B3-49EC-4C3D-B5EA-07BE3E9D7704}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>obs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,30 +120,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22_dummy</t>
+    <t>edu12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27_dummy</t>
+    <t>edu14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32_dummy</t>
-  </si>
-  <si>
-    <t>37_dummy</t>
-  </si>
-  <si>
-    <t>42_dummy</t>
-  </si>
-  <si>
-    <t>47_dummy</t>
-  </si>
-  <si>
-    <t>52_dummy</t>
-  </si>
-  <si>
-    <t>57_dummy</t>
+    <t>edu16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -507,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F454D4C-8D7F-4185-8969-13E2D24DCA49}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,23 +529,8 @@
       <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -579,7 +550,7 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -587,23 +558,8 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -626,28 +582,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -673,25 +614,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -719,23 +645,8 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -763,23 +674,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -807,23 +703,8 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -851,23 +732,8 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -895,23 +761,8 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -931,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -939,23 +790,8 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -978,28 +814,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1025,25 +846,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1071,23 +877,8 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1115,23 +906,8 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1159,23 +935,8 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1203,23 +964,8 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1247,23 +993,8 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1291,23 +1022,8 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1327,31 +1043,16 @@
         <v>27</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1371,31 +1072,16 @@
         <v>32</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1415,7 +1101,7 @@
         <v>37</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1423,23 +1109,8 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1459,7 +1130,7 @@
         <v>42</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1467,23 +1138,8 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1503,7 +1159,7 @@
         <v>47</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1511,23 +1167,8 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1547,7 +1188,7 @@
         <v>52</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1555,23 +1196,8 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1591,7 +1217,7 @@
         <v>57</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1599,23 +1225,8 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1643,23 +1254,8 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1679,31 +1275,16 @@
         <v>27</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1723,31 +1304,16 @@
         <v>32</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1767,7 +1333,7 @@
         <v>37</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1775,23 +1341,8 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1811,7 +1362,7 @@
         <v>42</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1819,23 +1370,8 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1855,7 +1391,7 @@
         <v>47</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1863,23 +1399,8 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1899,7 +1420,7 @@
         <v>52</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1907,23 +1428,8 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1943,7 +1449,7 @@
         <v>57</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1951,23 +1457,8 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1987,31 +1478,16 @@
         <v>22</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2039,23 +1515,8 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2078,28 +1539,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2122,28 +1568,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2166,28 +1597,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2210,28 +1626,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2254,28 +1655,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2298,28 +1684,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2339,31 +1710,16 @@
         <v>22</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2391,23 +1747,8 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2430,28 +1771,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2474,28 +1800,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2518,28 +1829,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2562,28 +1858,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2606,28 +1887,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2650,28 +1916,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2691,31 +1942,16 @@
         <v>22</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2738,28 +1974,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2787,23 +2008,8 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2829,25 +2035,10 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2873,25 +2064,10 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2917,25 +2093,10 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2961,25 +2122,10 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3005,25 +2151,10 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3043,31 +2174,16 @@
         <v>22</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3090,28 +2206,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3139,23 +2240,8 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3181,25 +2267,10 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3225,25 +2296,10 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3269,25 +2325,10 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3313,25 +2354,10 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3357,21 +2383,6 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
         <v>1</v>
       </c>
     </row>
